--- a/content/source/csv/publications/pub.xlsx
+++ b/content/source/csv/publications/pub.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atsushi\Desktop\SimizlabWeb\simizlab-homepage\content\source\csv\publications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryo\Desktop\simizlabHP\simizlab-homepage\content\source\csv\publications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE6AF1E-8256-44EA-81AE-F81E5D2A04E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB103088-E664-4F6F-8A11-A6F636B52B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6495" yWindow="4335" windowWidth="14850" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Book1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="pub" localSheetId="0">Book1!$A$1:$H$28</definedName>
+    <definedName name="pub" localSheetId="0">Book1!$A$1:$H$29</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="139">
   <si>
     <t>Author</t>
   </si>
@@ -487,6 +487,18 @@
   </si>
   <si>
     <t>Biomedical Optics Express</t>
+  </si>
+  <si>
+    <t>Masahiro Ogino, Zisheng Li, and Akinobu Shimizu</t>
+  </si>
+  <si>
+    <t>Augmented Radiology: Feature Space Transfer Model for Prostate Cancer Stage Prediction</t>
+  </si>
+  <si>
+    <t>IEEE Access</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2021.3098038</t>
   </si>
 </sst>
 </file>
@@ -535,7 +547,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -543,6 +555,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -829,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -877,272 +892,263 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>126</v>
+      <c r="A2" t="s">
+        <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G2" s="2">
-        <v>43709</v>
+        <v>137</v>
+      </c>
+      <c r="G2" s="3">
+        <v>44398</v>
       </c>
       <c r="H2" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="2">
+        <v>43709</v>
+      </c>
+      <c r="H3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>128</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G4" s="2">
         <v>43648</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H4" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4">
-        <v>56</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="2">
-        <v>43595</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
       </c>
       <c r="G5" s="2">
-        <v>43535</v>
+        <v>43595</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="2">
-        <v>43538</v>
+        <v>43535</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7">
-        <v>15</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G7" s="2">
-        <v>43466</v>
+        <v>43538</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E8">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>43513</v>
+        <v>43466</v>
       </c>
       <c r="H8" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>56</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G9" s="2">
-        <v>43244</v>
+        <v>43513</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>52</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
       </c>
       <c r="G10" s="2">
-        <v>43435</v>
+        <v>43244</v>
+      </c>
+      <c r="H10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="2">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>56</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>57</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>52</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>7</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G12" s="2">
         <v>43448</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H12" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="2">
-        <v>42917</v>
-      </c>
-      <c r="H12" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
+        <v>116</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G13" s="2">
-        <v>42821</v>
+        <v>42917</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -1154,21 +1160,21 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G14" s="2">
-        <v>42741</v>
+        <v>42821</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -1177,24 +1183,24 @@
         <v>12</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G15" s="2">
-        <v>42704</v>
+        <v>42741</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -1203,349 +1209,375 @@
         <v>12</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G16" s="2">
-        <v>42635</v>
+        <v>42704</v>
       </c>
       <c r="H16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>35</v>
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G17" s="2">
-        <v>42469</v>
+        <v>42635</v>
       </c>
       <c r="H17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="2">
+        <v>42469</v>
+      </c>
+      <c r="H18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>34</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>130</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>5</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G19" s="2">
         <v>42465</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H19" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19">
-        <v>28</v>
-      </c>
-      <c r="F19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="2">
-        <v>42342</v>
-      </c>
-      <c r="H19" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20">
-        <v>4</v>
+        <v>29</v>
+      </c>
+      <c r="D20">
+        <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G20" s="2">
-        <v>41730</v>
+        <v>42342</v>
       </c>
       <c r="H20" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21">
-        <v>18</v>
+        <v>116</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G21" s="2">
-        <v>41564</v>
+        <v>41730</v>
       </c>
       <c r="H21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D22">
-        <v>9</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G22" s="2">
-        <v>41478</v>
+        <v>41564</v>
       </c>
       <c r="H22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" t="s">
-        <v>77</v>
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G23" s="2">
-        <v>41365</v>
+        <v>41478</v>
       </c>
       <c r="H23" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24">
-        <v>17</v>
+        <v>116</v>
+      </c>
+      <c r="D24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G24" s="2">
-        <v>41175</v>
+        <v>41365</v>
       </c>
       <c r="H24" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="D25">
+        <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G25" s="2">
-        <v>40544</v>
+        <v>41175</v>
+      </c>
+      <c r="H25" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
-      </c>
-      <c r="D26">
-        <v>5</v>
-      </c>
-      <c r="E26">
         <v>85</v>
       </c>
       <c r="F26" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="G26" s="2">
-        <v>40012</v>
-      </c>
-      <c r="H26" t="s">
-        <v>104</v>
+        <v>40544</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>85</v>
+      </c>
+      <c r="F27" t="s">
+        <v>105</v>
       </c>
       <c r="G27" s="2">
-        <v>39448</v>
-      </c>
-      <c r="I27" t="s">
-        <v>122</v>
+        <v>40012</v>
+      </c>
+      <c r="H27" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28">
-        <v>32</v>
-      </c>
-      <c r="E28">
-        <v>6</v>
-      </c>
-      <c r="F28" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="G28" s="2">
-        <v>39638</v>
-      </c>
-      <c r="H28" t="s">
-        <v>92</v>
+        <v>39448</v>
+      </c>
+      <c r="I28" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>95</v>
+        <v>32</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G29" s="2">
-        <v>39413</v>
+        <v>39638</v>
       </c>
       <c r="H29" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" s="2">
+        <v>39413</v>
+      </c>
+      <c r="H30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>98</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>113</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>99</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>24</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>3</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" t="s">
         <v>100</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G31" s="2">
         <v>38838</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H31" t="s">
         <v>101</v>
       </c>
     </row>
